--- a/result_excel/predictions_summary.xlsx
+++ b/result_excel/predictions_summary.xlsx
@@ -10,6 +10,22 @@
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PRINCESS MARGARET HOSP" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="UNITED CHRISTIAN HOSPITAL" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TSEUNG KWAN O HOSPITAL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="QUEEN ELIZABETH HOSPITAL" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PRINCE OF WALES HOSPITAL" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QUEEN MARY HOSPITAL C_O PHARMAC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PAMELA YOUDE NETHERSOLE EASTERN" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="TUEN MUN HOSPITAL" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="QUEEN ELIZABETH HOSPITAL_1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="PAMELA YOUDE NETHERSOLE EASTE_1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TUEN MUN HOSPITAL_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="PRINCE OF WALES HOSPITAL_1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="QUEEN MARY HOSPITAL C_O PHARM_1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="UNITED CHRISTIAN HOSPITAL_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="PRINCESS MARGARET HOSP_1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="PRINCE OF WALES HOSPITAL_2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="QUEEN ELIZABETH HOSPITAL_2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="QUEEN MARY HOSPITAL C_O PHARM_2" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +571,2362 @@
         <is>
           <t>2025-08-23</t>
         </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ERBITUX 5MG/ML INJ 20ML 1'S</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TSEUNG KWAN O HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ERBITUX 5MG/ML INJ 20ML 1'S</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>QUEEN ELIZABETH HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ERBITUX 5MG/ML INJ 20ML 1'S</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PRINCE OF WALES HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ERBITUX 5MG/ML INJ 20ML 1'S</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>QUEEN MARY HOSPITAL C/O PHARMACY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ERBITUX 5MG/ML INJ 20ML 1'S</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PAMELA YOUDE NETHERSOLE EASTERN HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ERBITUX 5MG/ML INJ 20ML 1'S</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TUEN MUN HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-04-14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-11-16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2027-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QUEEN ELIZABETH HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PAMELA YOUDE NETHERSOLE EASTERN HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TUEN MUN HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PRINCE OF WALES HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>QUEEN MARY HOSPITAL C/O PHARMACY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UNITED CHRISTIAN HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BAVENCIO 200MG (20MG/ML) (1) - HKG</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PRINCESS MARGARET HOSP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TEPMETKO TAB 225 MG - (60) HKG</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PRINCE OF WALES HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TEPMETKO TAB 225 MG - (60) HKG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>QUEEN ELIZABETH HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TEPMETKO TAB 225 MG - (60) HKG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>QUEEN MARY HOSPITAL C/O PHARMACY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26.33606989774471</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18.09837401416397</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18.55481885689035</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32.67270668398509</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28.06663561756132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26.15662095163058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28.52747369003854</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>29.99301895076343</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46.23717557887927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40.19231171420572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23.95241655052602</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22.24457489468244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17.35241085289716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30.55911165999811</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>19.54188299623256</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40.44361245321649</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>46086</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22.4453642142173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20.89457905383337</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18.68500289589996</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19.63979488537618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82.5250395560206</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>46004</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24.70746052121082</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27.83601883712832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26.63091303553666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25.57406974085938</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20.70042692994999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40.00599482509904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19.85033154154251</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27.65707348953612</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45668</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45668</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1178,4 +3550,1234 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31.95924156872284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30.87426654496323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16.70567055885135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21.08297779036564</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21.48346516619673</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21.63872730731334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23.76260836064055</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21.06073150441127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>23.78350917005012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46.19372411512688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46.50153661302828</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>45.57398001694585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22.12088650696163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21.70214011888131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20.63669692363351</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20.64285452743227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>18.93321704150988</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20.03979574985263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>24.37138359441575</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30.21306157803063</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32.77119474371187</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30.97106829104843</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30.68348350080662</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.7760234749413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>46126</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>46342</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>46645</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/result_excel/predictions_summary.xlsx
+++ b/result_excel/predictions_summary.xlsx
@@ -25,7 +25,8 @@
     <sheet name="PRINCESS MARGARET HOSP_1" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="PRINCE OF WALES HOSPITAL_2" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="QUEEN ELIZABETH HOSPITAL_2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="QUEEN MARY HOSPITAL C_O PHARM_2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="PAMELA YOUDE NETHERSOLE EASTE_2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="QUEEN MARY HOSPITAL C_O PHARM_2" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,30 +1137,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>PAMELA YOUDE NETHERSOLE EASTERN HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TEPMETKO TAB 225 MG - (60) HKG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>QUEEN MARY HOSPITAL C/O PHARMACY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>2025-09-07</t>
         </is>
@@ -2840,7 +2878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45614</v>
+        <v>45691</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2848,12 +2886,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45614</v>
+        <v>45691</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2861,12 +2899,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.65707348953612</v>
+        <v>145.3041442301232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45668</v>
+        <v>45751</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2874,12 +2912,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45668</v>
+        <v>45751</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2887,12 +2925,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45720</v>
+        <v>45796</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2900,12 +2938,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45807</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2913,12 +2951,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45907</v>
+        <v>45982</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2926,7 +2964,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3113,6 +3151,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>InvoiceDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time_Between_Invoices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Predicted (Stacking)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27.65707348953612</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45668</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+1 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45668</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date (Stacking)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+2 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+3 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forecasted Next Invoice Date T+4 (Stacking)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
